--- a/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B46FB6-DE2D-40DD-9BDF-9FEE582C7CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798F7EA-9AC1-4A93-B44C-196E6C1A6EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="20" r:id="rId1"/>
     <sheet name="01,07" sheetId="68" r:id="rId2"/>
+    <sheet name="01,08" sheetId="69" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01,07'!$A$1:$W$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -1095,7 +1097,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1448,6 +1450,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1502,13 +1513,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1875,11 +1886,11 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128"/>
     </row>
     <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1898,44 +1909,44 @@
     <row r="3" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129" t="s">
+      <c r="E4" s="131"/>
+      <c r="F4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="135"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="138"/>
     </row>
     <row r="5" spans="1:51" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="126"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="130"/>
-      <c r="G5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="135"/>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3490,7 +3501,7 @@
     </row>
     <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="118" t="s">
+      <c r="F54" s="121" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="24" t="s">
@@ -3502,7 +3513,7 @@
       <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="119"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="25" t="s">
         <v>51</v>
       </c>
@@ -3512,7 +3523,7 @@
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="120"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="25" t="s">
         <v>52</v>
       </c>
@@ -3522,7 +3533,7 @@
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="121" t="s">
+      <c r="F57" s="124" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
@@ -3534,7 +3545,7 @@
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="121"/>
+      <c r="F58" s="124"/>
       <c r="G58" s="25" t="s">
         <v>51</v>
       </c>
@@ -3544,7 +3555,7 @@
       <c r="L58" s="38"/>
     </row>
     <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="122"/>
+      <c r="F59" s="125"/>
       <c r="G59" s="26" t="s">
         <v>52</v>
       </c>
@@ -3801,8 +3812,8 @@
   </sheetPr>
   <dimension ref="A1:BF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
@@ -3851,13 +3862,13 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="125"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="128"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3880,60 +3891,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="129" t="s">
+      <c r="F4" s="131"/>
+      <c r="G4" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="131" t="s">
+      <c r="I4" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="133" t="s">
+      <c r="L4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="135"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="138"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="136"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="141"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="138"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="140"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6579,7 +6590,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="118" t="s">
+      <c r="G54" s="121" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -6597,7 +6608,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="119"/>
+      <c r="G55" s="122"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -6613,7 +6624,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="120"/>
+      <c r="G56" s="123"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -6629,7 +6640,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="121" t="s">
+      <c r="G57" s="124" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -6647,7 +6658,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="121"/>
+      <c r="G58" s="124"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -6663,7 +6674,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="122"/>
+      <c r="G59" s="125"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -6988,6 +6999,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -6995,11 +7011,3039 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:V4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC125008-6B14-473E-BB6E-746E4E9397BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BF82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I59" sqref="I59:L59"/>
+      <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="53" width="7.28515625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="1.5703125" style="2" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="1.28515625" style="2" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="128"/>
+    </row>
+    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="139" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="138"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="133"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="140"/>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="30"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="30"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96">
+        <f>C8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="107">
+        <f>D8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96">
+        <f>L8+N8+P8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="95">
+        <f>M8+O8+Q8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="30"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+    </row>
+    <row r="9" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" ref="A9:A51" si="0">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="108"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="96">
+        <f t="shared" ref="I9:J51" si="1">C9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="96">
+        <f t="shared" ref="R9:S51" si="2">L9+N9+P9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="64"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="66"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="30"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="44"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="30"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+    </row>
+    <row r="13" spans="1:58" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="68"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="30"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="44"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="30"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="44"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+    </row>
+    <row r="19" spans="1:58" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="44"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="30"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="44"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="30"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="45"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+    </row>
+    <row r="24" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="45"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="44"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="30"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="44"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="BC26" s="14" t="e">
+        <f>#REF!-BC25</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="45"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="45"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="44"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="30"/>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="44"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="30"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="44"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="30"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="30"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="44"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="30"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="30"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="30"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="44"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="30"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="108"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="64"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="64"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="66"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="30"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>34</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="64"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="64"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="66"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="69"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="63"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="44"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="30"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="108"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="64"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="66"/>
+      <c r="X42" s="50"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="44"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="44"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="30"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="44"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="30"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="44"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="30"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="44"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="30"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="44"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="44"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="30"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="44"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="44"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="30"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="44"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="44"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="30"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="44"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="30"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="44"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="1:22" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="46">
+        <f>SUM(C8:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="74">
+        <f>SUM(D8:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="31">
+        <f>SUM(G8:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="76">
+        <f>SUM(H8:H51)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="76">
+        <f>SUM(I8:I51)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="48">
+        <f>SUM(J8:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="101">
+        <f t="shared" ref="L52:S52" si="3">SUM(L8:L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="49"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="48"/>
+    </row>
+    <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="35"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G55" s="122"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="36"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G56" s="123"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="41"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G57" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="39"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="41"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G58" s="124"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="125"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="42"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:22" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="118"/>
+      <c r="E61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="86"/>
+      <c r="N61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="23"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="V62" s="23"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="V63" s="23"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="V64" s="23"/>
+    </row>
+    <row r="65" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="V66" s="23"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="V67" s="23"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="V68" s="23"/>
+    </row>
+    <row r="69" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="V70" s="23"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="V71" s="23"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="V72" s="23"/>
+    </row>
+    <row r="73" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="V74" s="23"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="V75" s="23"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="V76" s="23"/>
+    </row>
+    <row r="77" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="V78" s="23"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="V80" s="23"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="V82" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
     <mergeCell ref="G54:G56"/>
     <mergeCell ref="G57:G59"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:V4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798F7EA-9AC1-4A93-B44C-196E6C1A6EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A8A36-ACCF-4016-9B18-298FC5BCDF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7026,11 +7026,11 @@
   <dimension ref="A1:BF82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -7310,7 +7310,9 @@
       <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="104">
+        <v>89</v>
+      </c>
       <c r="D8" s="105"/>
       <c r="E8" s="94"/>
       <c r="F8" s="94"/>
@@ -7318,7 +7320,7 @@
       <c r="H8" s="96"/>
       <c r="I8" s="96">
         <f>C8-G8</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J8" s="107">
         <f>D8-H8</f>
@@ -7374,7 +7376,9 @@
       <c r="B9" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="108">
+        <v>143</v>
+      </c>
       <c r="D9" s="109"/>
       <c r="E9" s="110"/>
       <c r="F9" s="110"/>
@@ -7382,7 +7386,7 @@
       <c r="H9" s="112"/>
       <c r="I9" s="96">
         <f t="shared" ref="I9:J51" si="1">C9-G9</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J9" s="107">
         <f t="shared" si="1"/>
@@ -7502,30 +7506,38 @@
       <c r="B11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="104">
+        <v>18</v>
+      </c>
       <c r="D11" s="105"/>
       <c r="E11" s="94"/>
       <c r="F11" s="94"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="106">
+        <v>6</v>
+      </c>
       <c r="H11" s="96"/>
       <c r="I11" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J11" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="44"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="94">
+        <v>1</v>
+      </c>
       <c r="M11" s="94"/>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
+      <c r="P11" s="94">
+        <v>5</v>
+      </c>
       <c r="Q11" s="95"/>
       <c r="R11" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S11" s="95">
         <f t="shared" si="2"/>
@@ -7566,15 +7578,19 @@
       <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="104">
+        <v>33</v>
+      </c>
       <c r="D12" s="105"/>
       <c r="E12" s="94"/>
       <c r="F12" s="94"/>
-      <c r="G12" s="106"/>
+      <c r="G12" s="106">
+        <v>5</v>
+      </c>
       <c r="H12" s="96"/>
       <c r="I12" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J12" s="107">
         <f t="shared" si="1"/>
@@ -7585,11 +7601,13 @@
       <c r="M12" s="94"/>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="P12" s="94">
+        <v>5</v>
+      </c>
       <c r="Q12" s="95"/>
       <c r="R12" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12" s="95">
         <f t="shared" si="2"/>
@@ -7629,34 +7647,54 @@
       <c r="B13" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="109"/>
+      <c r="C13" s="108">
+        <v>3957</v>
+      </c>
+      <c r="D13" s="109">
+        <v>9</v>
+      </c>
       <c r="E13" s="110"/>
       <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="G13" s="111">
+        <v>42</v>
+      </c>
+      <c r="H13" s="112">
+        <v>20</v>
+      </c>
       <c r="I13" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3915</v>
       </c>
       <c r="J13" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="K13" s="68"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
+      <c r="L13" s="97">
+        <v>13</v>
+      </c>
+      <c r="M13" s="97">
+        <v>3</v>
+      </c>
+      <c r="N13" s="97">
+        <v>15</v>
+      </c>
+      <c r="O13" s="97">
+        <v>11</v>
+      </c>
+      <c r="P13" s="97">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="98">
+        <v>6</v>
+      </c>
       <c r="R13" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S13" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T13" s="68"/>
       <c r="U13" s="67"/>
@@ -7699,7 +7737,9 @@
       <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="104">
+        <v>5</v>
+      </c>
       <c r="D14" s="105"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
@@ -7707,7 +7747,7 @@
       <c r="H14" s="96"/>
       <c r="I14" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="107">
         <f t="shared" si="1"/>
@@ -7763,7 +7803,9 @@
       <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="104">
+        <v>1</v>
+      </c>
       <c r="D15" s="105"/>
       <c r="E15" s="94"/>
       <c r="F15" s="94"/>
@@ -7771,7 +7813,7 @@
       <c r="H15" s="96"/>
       <c r="I15" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="107">
         <f t="shared" si="1"/>
@@ -7827,7 +7869,9 @@
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="104"/>
+      <c r="C16" s="104">
+        <v>1</v>
+      </c>
       <c r="D16" s="105"/>
       <c r="E16" s="94"/>
       <c r="F16" s="94"/>
@@ -7835,7 +7879,7 @@
       <c r="H16" s="96"/>
       <c r="I16" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="107">
         <f t="shared" si="1"/>
@@ -7955,7 +7999,9 @@
       <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="104">
+        <v>6</v>
+      </c>
       <c r="D18" s="105"/>
       <c r="E18" s="94"/>
       <c r="F18" s="94"/>
@@ -7963,7 +8009,7 @@
       <c r="H18" s="96"/>
       <c r="I18" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" s="107">
         <f t="shared" si="1"/>
@@ -8082,7 +8128,9 @@
       <c r="B20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="104">
+        <v>4</v>
+      </c>
       <c r="D20" s="105"/>
       <c r="E20" s="94"/>
       <c r="F20" s="94"/>
@@ -8090,7 +8138,7 @@
       <c r="H20" s="96"/>
       <c r="I20" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" s="107">
         <f t="shared" si="1"/>
@@ -8146,7 +8194,9 @@
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="104"/>
+      <c r="C21" s="104">
+        <v>7</v>
+      </c>
       <c r="D21" s="105"/>
       <c r="E21" s="94"/>
       <c r="F21" s="94"/>
@@ -8154,7 +8204,7 @@
       <c r="H21" s="96"/>
       <c r="I21" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J21" s="107">
         <f t="shared" si="1"/>
@@ -8210,7 +8260,9 @@
       <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="104"/>
+      <c r="C22" s="104">
+        <v>6</v>
+      </c>
       <c r="D22" s="105"/>
       <c r="E22" s="94"/>
       <c r="F22" s="94"/>
@@ -8218,7 +8270,7 @@
       <c r="H22" s="96"/>
       <c r="I22" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="107">
         <f t="shared" si="1"/>
@@ -8274,7 +8326,9 @@
       <c r="B23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="104"/>
+      <c r="C23" s="104">
+        <v>4</v>
+      </c>
       <c r="D23" s="105"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
@@ -8282,7 +8336,7 @@
       <c r="H23" s="96"/>
       <c r="I23" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="107">
         <f t="shared" si="1"/>
@@ -8345,7 +8399,9 @@
       <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="104">
+        <v>55</v>
+      </c>
       <c r="D24" s="105"/>
       <c r="E24" s="94"/>
       <c r="F24" s="94"/>
@@ -8353,7 +8409,7 @@
       <c r="H24" s="96"/>
       <c r="I24" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J24" s="107">
         <f t="shared" si="1"/>
@@ -8416,7 +8472,9 @@
       <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="104">
+        <v>8</v>
+      </c>
       <c r="D25" s="105"/>
       <c r="E25" s="94"/>
       <c r="F25" s="94"/>
@@ -8424,7 +8482,7 @@
       <c r="H25" s="96"/>
       <c r="I25" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J25" s="107">
         <f t="shared" si="1"/>
@@ -8480,23 +8538,31 @@
       <c r="B26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
+      <c r="C26" s="104">
+        <v>66</v>
+      </c>
+      <c r="D26" s="105">
+        <v>11</v>
+      </c>
       <c r="E26" s="94"/>
       <c r="F26" s="94"/>
       <c r="G26" s="106"/>
-      <c r="H26" s="96"/>
+      <c r="H26" s="96">
+        <v>12</v>
+      </c>
       <c r="I26" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J26" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="44"/>
       <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
+      <c r="M26" s="94">
+        <v>12</v>
+      </c>
       <c r="N26" s="94"/>
       <c r="O26" s="94"/>
       <c r="P26" s="94"/>
@@ -8507,7 +8573,7 @@
       </c>
       <c r="S26" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T26" s="44"/>
       <c r="U26" s="28"/>
@@ -8525,22 +8591,28 @@
       <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="104"/>
+      <c r="C27" s="104">
+        <v>21</v>
+      </c>
       <c r="D27" s="105"/>
       <c r="E27" s="94"/>
       <c r="F27" s="94"/>
-      <c r="G27" s="106"/>
+      <c r="G27" s="106">
+        <v>1</v>
+      </c>
       <c r="H27" s="96"/>
       <c r="I27" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J27" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="45"/>
-      <c r="L27" s="94"/>
+      <c r="L27" s="94">
+        <v>1</v>
+      </c>
       <c r="M27" s="94"/>
       <c r="N27" s="94"/>
       <c r="O27" s="94"/>
@@ -8548,7 +8620,7 @@
       <c r="Q27" s="95"/>
       <c r="R27" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="95">
         <f t="shared" si="2"/>
@@ -8573,15 +8645,23 @@
       <c r="B28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
+      <c r="C28" s="104">
+        <v>83</v>
+      </c>
+      <c r="D28" s="105">
+        <v>12</v>
+      </c>
       <c r="E28" s="94"/>
       <c r="F28" s="94"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="96"/>
+      <c r="G28" s="106">
+        <v>3</v>
+      </c>
+      <c r="H28" s="96">
+        <v>12</v>
+      </c>
       <c r="I28" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J28" s="107">
         <f t="shared" si="1"/>
@@ -8589,18 +8669,22 @@
       </c>
       <c r="K28" s="45"/>
       <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
+      <c r="M28" s="94">
+        <v>12</v>
+      </c>
       <c r="N28" s="94"/>
       <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
+      <c r="P28" s="94">
+        <v>3</v>
+      </c>
       <c r="Q28" s="95"/>
       <c r="R28" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S28" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T28" s="45"/>
       <c r="U28" s="28"/>
@@ -8621,15 +8705,19 @@
       <c r="B29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="104"/>
+      <c r="C29" s="104">
+        <v>10</v>
+      </c>
       <c r="D29" s="105"/>
       <c r="E29" s="94"/>
       <c r="F29" s="94"/>
-      <c r="G29" s="106"/>
+      <c r="G29" s="106">
+        <v>1</v>
+      </c>
       <c r="H29" s="96"/>
       <c r="I29" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J29" s="107">
         <f t="shared" si="1"/>
@@ -8640,11 +8728,13 @@
       <c r="M29" s="94"/>
       <c r="N29" s="94"/>
       <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
+      <c r="P29" s="94">
+        <v>1</v>
+      </c>
       <c r="Q29" s="95"/>
       <c r="R29" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="95">
         <f t="shared" si="2"/>
@@ -8662,7 +8752,9 @@
       <c r="B30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="104"/>
+      <c r="C30" s="104">
+        <v>102</v>
+      </c>
       <c r="D30" s="105"/>
       <c r="E30" s="94"/>
       <c r="F30" s="94"/>
@@ -8670,7 +8762,7 @@
       <c r="H30" s="96"/>
       <c r="I30" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J30" s="107">
         <f t="shared" si="1"/>
@@ -8785,7 +8877,9 @@
       <c r="B33" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="104"/>
+      <c r="C33" s="104">
+        <v>5</v>
+      </c>
       <c r="D33" s="105"/>
       <c r="E33" s="94"/>
       <c r="F33" s="94"/>
@@ -8793,7 +8887,7 @@
       <c r="H33" s="96"/>
       <c r="I33" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="107">
         <f t="shared" si="1"/>
@@ -8826,30 +8920,38 @@
       <c r="B34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="105"/>
+      <c r="C34" s="104">
+        <v>209</v>
+      </c>
+      <c r="D34" s="105">
+        <v>23</v>
+      </c>
       <c r="E34" s="94"/>
       <c r="F34" s="94"/>
-      <c r="G34" s="106"/>
+      <c r="G34" s="106">
+        <v>1</v>
+      </c>
       <c r="H34" s="96"/>
       <c r="I34" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="J34" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K34" s="44"/>
       <c r="L34" s="94"/>
       <c r="M34" s="94"/>
       <c r="N34" s="94"/>
       <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
+      <c r="P34" s="94">
+        <v>1</v>
+      </c>
       <c r="Q34" s="95"/>
       <c r="R34" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="95">
         <f t="shared" si="2"/>
@@ -8907,7 +9009,9 @@
       <c r="B36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="104"/>
+      <c r="C36" s="104">
+        <v>1</v>
+      </c>
       <c r="D36" s="105"/>
       <c r="E36" s="94"/>
       <c r="F36" s="94"/>
@@ -8915,7 +9019,7 @@
       <c r="H36" s="96"/>
       <c r="I36" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="107">
         <f t="shared" si="1"/>
@@ -8948,30 +9052,42 @@
       <c r="B37" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="109"/>
+      <c r="C37" s="108">
+        <v>6917</v>
+      </c>
+      <c r="D37" s="109">
+        <v>2</v>
+      </c>
       <c r="E37" s="110"/>
       <c r="F37" s="110"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="111">
+        <v>114</v>
+      </c>
       <c r="H37" s="112"/>
       <c r="I37" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6803</v>
       </c>
       <c r="J37" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37" s="64"/>
-      <c r="L37" s="97"/>
+      <c r="L37" s="97">
+        <v>10</v>
+      </c>
       <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
+      <c r="N37" s="97">
+        <v>20</v>
+      </c>
       <c r="O37" s="97"/>
-      <c r="P37" s="97"/>
+      <c r="P37" s="97">
+        <v>84</v>
+      </c>
       <c r="Q37" s="98"/>
       <c r="R37" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="S37" s="95">
         <f t="shared" si="2"/>
@@ -8989,7 +9105,9 @@
       <c r="B38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="104"/>
+      <c r="C38" s="104">
+        <v>35</v>
+      </c>
       <c r="D38" s="105"/>
       <c r="E38" s="94"/>
       <c r="F38" s="94"/>
@@ -8997,7 +9115,7 @@
       <c r="H38" s="96"/>
       <c r="I38" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J38" s="107">
         <f t="shared" si="1"/>
@@ -9030,30 +9148,38 @@
       <c r="B39" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="108"/>
+      <c r="C39" s="108">
+        <v>1098</v>
+      </c>
       <c r="D39" s="109"/>
       <c r="E39" s="110"/>
       <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
+      <c r="G39" s="111">
+        <v>4</v>
+      </c>
       <c r="H39" s="112"/>
       <c r="I39" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="J39" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="64"/>
-      <c r="L39" s="97"/>
+      <c r="L39" s="97">
+        <v>2</v>
+      </c>
       <c r="M39" s="97"/>
       <c r="N39" s="97"/>
       <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
+      <c r="P39" s="97">
+        <v>2</v>
+      </c>
       <c r="Q39" s="98"/>
       <c r="R39" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="95">
         <f t="shared" si="2"/>
@@ -9071,30 +9197,38 @@
       <c r="B40" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="113"/>
+      <c r="C40" s="113">
+        <v>2316</v>
+      </c>
       <c r="D40" s="114"/>
       <c r="E40" s="99"/>
       <c r="F40" s="99"/>
-      <c r="G40" s="115"/>
+      <c r="G40" s="115">
+        <v>21</v>
+      </c>
       <c r="H40" s="116"/>
       <c r="I40" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J40" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="69"/>
-      <c r="L40" s="99"/>
+      <c r="L40" s="99">
+        <v>2</v>
+      </c>
       <c r="M40" s="99"/>
       <c r="N40" s="99"/>
       <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
+      <c r="P40" s="99">
+        <v>19</v>
+      </c>
       <c r="Q40" s="100"/>
       <c r="R40" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S40" s="95">
         <f t="shared" si="2"/>
@@ -9152,30 +9286,42 @@
       <c r="B42" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="109"/>
+      <c r="C42" s="108">
+        <v>34124</v>
+      </c>
+      <c r="D42" s="109">
+        <v>3</v>
+      </c>
       <c r="E42" s="110"/>
       <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
+      <c r="G42" s="111">
+        <v>1353</v>
+      </c>
       <c r="H42" s="112"/>
       <c r="I42" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32771</v>
       </c>
       <c r="J42" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="64"/>
-      <c r="L42" s="97"/>
+      <c r="L42" s="97">
+        <v>523</v>
+      </c>
       <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
+      <c r="N42" s="97">
+        <v>450</v>
+      </c>
       <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
+      <c r="P42" s="97">
+        <v>380</v>
+      </c>
       <c r="Q42" s="98"/>
       <c r="R42" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="S42" s="95">
         <f t="shared" si="2"/>
@@ -9275,7 +9421,9 @@
       <c r="B45" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="104"/>
+      <c r="C45" s="104">
+        <v>2</v>
+      </c>
       <c r="D45" s="105"/>
       <c r="E45" s="94"/>
       <c r="F45" s="94"/>
@@ -9283,7 +9431,7 @@
       <c r="H45" s="96"/>
       <c r="I45" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="107">
         <f t="shared" si="1"/>
@@ -9316,30 +9464,40 @@
       <c r="B46" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
+      <c r="C46" s="104">
+        <v>2415</v>
+      </c>
+      <c r="D46" s="105">
+        <v>3</v>
+      </c>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
-      <c r="G46" s="106"/>
+      <c r="G46" s="106">
+        <v>4</v>
+      </c>
       <c r="H46" s="96"/>
       <c r="I46" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2411</v>
       </c>
       <c r="J46" s="107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" s="44"/>
-      <c r="L46" s="94"/>
+      <c r="L46" s="94">
+        <v>1</v>
+      </c>
       <c r="M46" s="94"/>
-      <c r="N46" s="94"/>
+      <c r="N46" s="94">
+        <v>3</v>
+      </c>
       <c r="O46" s="94"/>
       <c r="P46" s="94"/>
       <c r="Q46" s="95"/>
       <c r="R46" s="96">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S46" s="95">
         <f t="shared" si="2"/>
@@ -9398,7 +9556,9 @@
       <c r="B48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="104"/>
+      <c r="C48" s="104">
+        <v>1</v>
+      </c>
       <c r="D48" s="105"/>
       <c r="E48" s="94"/>
       <c r="F48" s="94"/>
@@ -9406,7 +9566,7 @@
       <c r="H48" s="96"/>
       <c r="I48" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="107">
         <f t="shared" si="1"/>
@@ -9480,7 +9640,9 @@
       <c r="B50" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="104"/>
+      <c r="C50" s="104">
+        <v>34</v>
+      </c>
       <c r="D50" s="105"/>
       <c r="E50" s="94"/>
       <c r="F50" s="94"/>
@@ -9488,7 +9650,7 @@
       <c r="H50" s="96"/>
       <c r="I50" s="96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J50" s="107">
         <f t="shared" si="1"/>
@@ -9560,62 +9722,62 @@
       </c>
       <c r="C52" s="46">
         <f>SUM(C8:C51)</f>
-        <v>0</v>
+        <v>51776</v>
       </c>
       <c r="D52" s="74">
         <f>SUM(D8:D51)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="31">
         <f>SUM(G8:G51)</f>
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="H52" s="76">
         <f>SUM(H8:H51)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I52" s="76">
-        <f>SUM(I8:I51)</f>
-        <v>0</v>
+        <f>SUM(I8:I51)-2</f>
+        <v>50219</v>
       </c>
       <c r="J52" s="48">
-        <f>SUM(J8:J51)</f>
-        <v>0</v>
+        <f>SUM(J8:J51)+48</f>
+        <v>67</v>
       </c>
       <c r="K52" s="49"/>
       <c r="L52" s="101">
         <f t="shared" ref="L52:S52" si="3">SUM(L8:L51)</f>
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="M52" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N52" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="O52" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P52" s="101">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="Q52" s="102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R52" s="102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="S52" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="T52" s="49"/>
       <c r="U52" s="46"/>

--- a/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A8A36-ACCF-4016-9B18-298FC5BCDF3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039888F-6D64-485B-989F-9731578AAA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="20" r:id="rId1"/>
     <sheet name="01,07" sheetId="68" r:id="rId2"/>
     <sheet name="01,08" sheetId="69" r:id="rId3"/>
+    <sheet name="01,09" sheetId="70" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01,07'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$W$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="76">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -1097,7 +1099,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1459,6 +1461,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,13 +1524,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1886,11 +1897,11 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="131"/>
     </row>
     <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1909,44 +1920,44 @@
     <row r="3" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132" t="s">
+      <c r="E4" s="134"/>
+      <c r="F4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="138"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="141"/>
     </row>
     <row r="5" spans="1:51" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="135"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="138"/>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3501,7 +3512,7 @@
     </row>
     <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="121" t="s">
+      <c r="F54" s="124" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="24" t="s">
@@ -3513,7 +3524,7 @@
       <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="122"/>
+      <c r="F55" s="125"/>
       <c r="G55" s="25" t="s">
         <v>51</v>
       </c>
@@ -3523,7 +3534,7 @@
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="123"/>
+      <c r="F56" s="126"/>
       <c r="G56" s="25" t="s">
         <v>52</v>
       </c>
@@ -3533,7 +3544,7 @@
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="124" t="s">
+      <c r="F57" s="127" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
@@ -3545,7 +3556,7 @@
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="124"/>
+      <c r="F58" s="127"/>
       <c r="G58" s="25" t="s">
         <v>51</v>
       </c>
@@ -3555,7 +3566,7 @@
       <c r="L58" s="38"/>
     </row>
     <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="125"/>
+      <c r="F59" s="128"/>
       <c r="G59" s="26" t="s">
         <v>52</v>
       </c>
@@ -3812,12 +3823,12 @@
   </sheetPr>
   <dimension ref="A1:BF82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
-      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3862,13 +3873,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="128"/>
+      <c r="P1" s="129">
+        <v>46029</v>
+      </c>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="131"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3891,60 +3904,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="136" t="s">
+      <c r="L4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="138"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="141"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="141"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="140"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="144"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6590,7 +6603,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="121" t="s">
+      <c r="G54" s="124" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -6608,7 +6621,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="122"/>
+      <c r="G55" s="125"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -6624,7 +6637,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="123"/>
+      <c r="G56" s="126"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -6640,7 +6653,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="124" t="s">
+      <c r="G57" s="127" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -6658,7 +6671,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="124"/>
+      <c r="G58" s="127"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -6674,7 +6687,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="125"/>
+      <c r="G59" s="128"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -6999,11 +7012,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7011,6 +7019,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:V4"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7025,12 +7038,12 @@
   </sheetPr>
   <dimension ref="A1:BF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -7075,13 +7088,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="128"/>
+      <c r="P1" s="129">
+        <v>46030</v>
+      </c>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="131"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -7104,60 +7119,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="136" t="s">
+      <c r="L4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="137"/>
-      <c r="S4" s="137"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="137"/>
-      <c r="V4" s="138"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="141"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="141"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="142"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="140"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="144"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -9785,7 +9800,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="121" t="s">
+      <c r="G54" s="124" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -9803,7 +9818,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="122"/>
+      <c r="G55" s="125"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -9819,7 +9834,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="123"/>
+      <c r="G56" s="126"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -9835,7 +9850,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="124" t="s">
+      <c r="G57" s="127" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -9853,7 +9868,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="124"/>
+      <c r="G58" s="127"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -9869,7 +9884,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="125"/>
+      <c r="G59" s="128"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -9913,6 +9928,3192 @@
         <v>55</v>
       </c>
       <c r="V61" s="117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="23"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="V62" s="23"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="V63" s="23"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="V64" s="23"/>
+    </row>
+    <row r="65" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="V66" s="23"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="V67" s="23"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="V68" s="23"/>
+    </row>
+    <row r="69" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="V70" s="23"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="V71" s="23"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="V72" s="23"/>
+    </row>
+    <row r="73" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="V74" s="23"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="V75" s="23"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="V76" s="23"/>
+    </row>
+    <row r="77" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="V78" s="23"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="V80" s="23"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="V82" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:V4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22FCA4A-EDFC-4F9F-B9C4-2585F0208CA1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BF82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I59" sqref="I59:L59"/>
+      <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1:V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="53" width="7.28515625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="1.5703125" style="2" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="1.28515625" style="2" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="129">
+        <v>46031</v>
+      </c>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="131"/>
+    </row>
+    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="141"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="144"/>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="30"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="30"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="104">
+        <v>87</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="106">
+        <v>2</v>
+      </c>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96">
+        <f>C8-G8</f>
+        <v>85</v>
+      </c>
+      <c r="J8" s="107">
+        <f>D8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94">
+        <v>2</v>
+      </c>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96">
+        <f>L8+N8+P8</f>
+        <v>2</v>
+      </c>
+      <c r="S8" s="95">
+        <f>M8+O8+Q8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="30"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+    </row>
+    <row r="9" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" ref="A9:A51" si="0">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="108">
+        <v>143</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="96">
+        <f t="shared" ref="I9:J51" si="1">C9-G9</f>
+        <v>143</v>
+      </c>
+      <c r="J9" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="96">
+        <f t="shared" ref="R9:S51" si="2">L9+N9+P9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="64"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="66"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="30"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="104">
+        <v>9</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J11" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="104">
+        <v>28</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="44"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="30"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+    </row>
+    <row r="13" spans="1:58" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="108">
+        <v>3876</v>
+      </c>
+      <c r="D13" s="109">
+        <v>5</v>
+      </c>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111">
+        <v>40</v>
+      </c>
+      <c r="H13" s="112">
+        <v>36</v>
+      </c>
+      <c r="I13" s="96">
+        <f t="shared" si="1"/>
+        <v>3836</v>
+      </c>
+      <c r="J13" s="107">
+        <f t="shared" si="1"/>
+        <v>-31</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="97">
+        <v>20</v>
+      </c>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97">
+        <v>10</v>
+      </c>
+      <c r="O13" s="97">
+        <v>22</v>
+      </c>
+      <c r="P13" s="97">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="98">
+        <v>14</v>
+      </c>
+      <c r="R13" s="96">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="S13" s="95">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="T13" s="68"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="104">
+        <v>5</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="30"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="104">
+        <v>1</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="104">
+        <v>1</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="44"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="30"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="104">
+        <v>6</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="44"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+    </row>
+    <row r="19" spans="1:58" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="44"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="30"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="104">
+        <v>4</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="104">
+        <v>7</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J21" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="44"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="30"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="104">
+        <v>6</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="104">
+        <v>4</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="45"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+    </row>
+    <row r="24" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="104">
+        <v>55</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J24" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="45"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="104">
+        <v>8</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J25" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="44"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="30"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="104">
+        <v>63</v>
+      </c>
+      <c r="D26" s="105">
+        <v>23</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="106">
+        <v>1</v>
+      </c>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J26" s="107">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94">
+        <v>1</v>
+      </c>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="44"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="BC26" s="14" t="e">
+        <f>#REF!-BC25</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="104">
+        <v>20</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J27" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="45"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="104">
+        <v>70</v>
+      </c>
+      <c r="D28" s="105"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="106">
+        <v>4</v>
+      </c>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="J28" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S28" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="45"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="104">
+        <v>7</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="106">
+        <v>2</v>
+      </c>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J29" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94">
+        <v>1</v>
+      </c>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S29" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="44"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="30"/>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="104">
+        <v>100</v>
+      </c>
+      <c r="D30" s="105"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="106">
+        <v>2</v>
+      </c>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J30" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94">
+        <v>1</v>
+      </c>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S30" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="44"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="30"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="44"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="30"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="30"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="104">
+        <v>5</v>
+      </c>
+      <c r="D33" s="105"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J33" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="44"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="30"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="104">
+        <v>204</v>
+      </c>
+      <c r="D34" s="105">
+        <v>23</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="106">
+        <v>1</v>
+      </c>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="J34" s="107">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="30"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="30"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="104">
+        <v>1</v>
+      </c>
+      <c r="D36" s="105"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="44"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="30"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="108">
+        <v>6774</v>
+      </c>
+      <c r="D37" s="109">
+        <v>2</v>
+      </c>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111">
+        <v>101</v>
+      </c>
+      <c r="H37" s="112"/>
+      <c r="I37" s="96">
+        <f t="shared" si="1"/>
+        <v>6673</v>
+      </c>
+      <c r="J37" s="107">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K37" s="64"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97">
+        <v>23</v>
+      </c>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="96">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="S37" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="64"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="66"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="104">
+        <v>35</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J38" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="30"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>34</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="108">
+        <v>1092</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="96">
+        <f t="shared" si="1"/>
+        <v>1092</v>
+      </c>
+      <c r="J39" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="64"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="64"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="66"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="113">
+        <v>2275</v>
+      </c>
+      <c r="D40" s="114"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="115">
+        <v>21</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="96">
+        <f t="shared" si="1"/>
+        <v>2254</v>
+      </c>
+      <c r="J40" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99">
+        <v>9</v>
+      </c>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="96">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="S40" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="69"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="63"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="44"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="30"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="108">
+        <v>33057</v>
+      </c>
+      <c r="D42" s="109">
+        <v>3</v>
+      </c>
+      <c r="E42" s="110">
+        <v>2574</v>
+      </c>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111">
+        <v>1308</v>
+      </c>
+      <c r="H42" s="112"/>
+      <c r="I42" s="96">
+        <f>C42-G42+E42</f>
+        <v>34323</v>
+      </c>
+      <c r="J42" s="107">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="97">
+        <v>647</v>
+      </c>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97">
+        <v>317</v>
+      </c>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97">
+        <v>344</v>
+      </c>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="96">
+        <f t="shared" si="2"/>
+        <v>1308</v>
+      </c>
+      <c r="S42" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="64"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="66"/>
+      <c r="X42" s="50"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="44"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="44"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="30"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="44"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="30"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="104">
+        <v>2</v>
+      </c>
+      <c r="D45" s="105"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J45" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="44"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="30"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="104">
+        <v>2411</v>
+      </c>
+      <c r="D46" s="105">
+        <v>3</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="106">
+        <v>4</v>
+      </c>
+      <c r="H46" s="96">
+        <v>2</v>
+      </c>
+      <c r="I46" s="96">
+        <f t="shared" si="1"/>
+        <v>2407</v>
+      </c>
+      <c r="J46" s="107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94">
+        <v>2</v>
+      </c>
+      <c r="P46" s="94">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="96">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S46" s="95">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T46" s="44"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="30"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="44"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="44"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="30"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="104">
+        <v>1</v>
+      </c>
+      <c r="D48" s="105"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="44"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="44"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="30"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="44"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="44"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="30"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="104">
+        <v>34</v>
+      </c>
+      <c r="D50" s="105"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J50" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="44"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="30"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="44"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="1:22" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="46">
+        <f>SUM(C8:C51)</f>
+        <v>50391</v>
+      </c>
+      <c r="D52" s="74">
+        <f>SUM(D8:D51)</f>
+        <v>59</v>
+      </c>
+      <c r="E52" s="47">
+        <f>SUM(E8:E51)</f>
+        <v>2574</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="31">
+        <f>SUM(G8:G51)</f>
+        <v>1486</v>
+      </c>
+      <c r="H52" s="76">
+        <f>SUM(H8:H51)</f>
+        <v>38</v>
+      </c>
+      <c r="I52" s="76">
+        <f>SUM(I8:I51)-2</f>
+        <v>51477</v>
+      </c>
+      <c r="J52" s="48">
+        <f>SUM(J8:J51)+48</f>
+        <v>69</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="101">
+        <f t="shared" ref="L52:S52" si="3">SUM(L8:L51)</f>
+        <v>667</v>
+      </c>
+      <c r="M52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="101">
+        <f t="shared" si="3"/>
+        <v>364</v>
+      </c>
+      <c r="O52" s="101">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P52" s="101">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="Q52" s="102">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="R52" s="102">
+        <f t="shared" si="3"/>
+        <v>1486</v>
+      </c>
+      <c r="S52" s="103">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T52" s="49"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="48"/>
+    </row>
+    <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="35"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G55" s="125"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="36"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G56" s="126"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="41"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G57" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="39"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="41"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G58" s="127"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="128"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="42"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:22" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="121"/>
+      <c r="E61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="86"/>
+      <c r="N61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="120" t="s">
         <v>56</v>
       </c>
     </row>

--- a/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039888F-6D64-485B-989F-9731578AAA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FCFEF-B87D-473B-B267-F070DFAB8F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="20" r:id="rId1"/>
     <sheet name="01,07" sheetId="68" r:id="rId2"/>
     <sheet name="01,08" sheetId="69" r:id="rId3"/>
     <sheet name="01,09" sheetId="70" r:id="rId4"/>
+    <sheet name="01,09 (2)" sheetId="71" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01,07'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$W$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'01,09 (2)'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="76">
   <si>
     <t>GUILLERMO BEVERAGE DISTRIBUTION SERVICES</t>
   </si>
@@ -341,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1092,6 +1094,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1099,7 +1222,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1466,6 +1589,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="58" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="62" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="61" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="63" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1897,11 +2062,11 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="131"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1920,44 +2085,44 @@
     <row r="3" spans="1:51" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:51" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="141"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
     </row>
     <row r="5" spans="1:51" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="132"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="138"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="152"/>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3512,7 +3677,7 @@
     </row>
     <row r="53" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="124" t="s">
+      <c r="F54" s="138" t="s">
         <v>65</v>
       </c>
       <c r="G54" s="24" t="s">
@@ -3524,7 +3689,7 @@
       <c r="L54" s="35"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F55" s="125"/>
+      <c r="F55" s="139"/>
       <c r="G55" s="25" t="s">
         <v>51</v>
       </c>
@@ -3534,7 +3699,7 @@
       <c r="L55" s="38"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F56" s="126"/>
+      <c r="F56" s="140"/>
       <c r="G56" s="25" t="s">
         <v>52</v>
       </c>
@@ -3544,7 +3709,7 @@
       <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F57" s="127" t="s">
+      <c r="F57" s="141" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
@@ -3556,7 +3721,7 @@
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F58" s="127"/>
+      <c r="F58" s="141"/>
       <c r="G58" s="25" t="s">
         <v>51</v>
       </c>
@@ -3566,7 +3731,7 @@
       <c r="L58" s="38"/>
     </row>
     <row r="59" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="128"/>
+      <c r="F59" s="142"/>
       <c r="G59" s="26" t="s">
         <v>52</v>
       </c>
@@ -3873,15 +4038,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="129">
+      <c r="P1" s="143">
         <v>46029</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="131"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="145"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3904,60 +4069,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="148"/>
+      <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="143" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="139" t="s">
+      <c r="L4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="141"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="144"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -6603,7 +6768,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="124" t="s">
+      <c r="G54" s="138" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -6621,7 +6786,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="125"/>
+      <c r="G55" s="139"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -6637,7 +6802,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="126"/>
+      <c r="G56" s="140"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -6653,7 +6818,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="141" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -6671,7 +6836,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="127"/>
+      <c r="G58" s="141"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -6687,7 +6852,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="128"/>
+      <c r="G59" s="142"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -7088,15 +7253,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="129">
+      <c r="P1" s="143">
         <v>46030</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="131"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="145"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -7119,60 +7284,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="148"/>
+      <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="143" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="139" t="s">
+      <c r="L4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="141"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="144"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -9800,7 +9965,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="124" t="s">
+      <c r="G54" s="138" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -9818,7 +9983,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="125"/>
+      <c r="G55" s="139"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -9834,7 +9999,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="126"/>
+      <c r="G56" s="140"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -9850,7 +10015,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="141" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -9868,7 +10033,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="127"/>
+      <c r="G58" s="141"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -9884,7 +10049,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="128"/>
+      <c r="G59" s="142"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -10235,12 +10400,12 @@
   </sheetPr>
   <dimension ref="A1:BF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1:V1"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -10285,15 +10450,15 @@
       <c r="N1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="129">
+      <c r="P1" s="143">
         <v>46031</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="131"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="145"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -10316,60 +10481,60 @@
     <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="148"/>
+      <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="143" t="s">
+      <c r="H4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="143" t="s">
+      <c r="J4" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="139" t="s">
+      <c r="L4" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="141"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
     </row>
     <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="142"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="144"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="158"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -12986,7 +13151,7 @@
     </row>
     <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="124" t="s">
+      <c r="G54" s="138" t="s">
         <v>65</v>
       </c>
       <c r="H54" s="77"/>
@@ -13004,7 +13169,7 @@
       <c r="S54" s="35"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G55" s="125"/>
+      <c r="G55" s="139"/>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
       <c r="J55" s="25" t="s">
@@ -13020,7 +13185,7 @@
       <c r="S55" s="38"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G56" s="126"/>
+      <c r="G56" s="140"/>
       <c r="H56" s="79"/>
       <c r="I56" s="79"/>
       <c r="J56" s="25" t="s">
@@ -13036,7 +13201,7 @@
       <c r="S56" s="41"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="141" t="s">
         <v>64</v>
       </c>
       <c r="H57" s="80"/>
@@ -13054,7 +13219,7 @@
       <c r="S57" s="41"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G58" s="127"/>
+      <c r="G58" s="141"/>
       <c r="H58" s="80"/>
       <c r="I58" s="80"/>
       <c r="J58" s="25" t="s">
@@ -13070,7 +13235,7 @@
       <c r="S58" s="38"/>
     </row>
     <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="128"/>
+      <c r="G59" s="142"/>
       <c r="H59" s="81"/>
       <c r="I59" s="81"/>
       <c r="J59" s="26" t="s">
@@ -13114,6 +13279,3136 @@
         <v>55</v>
       </c>
       <c r="V61" s="120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="23"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="V62" s="23"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="V63" s="23"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="V64" s="23"/>
+    </row>
+    <row r="65" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="V66" s="23"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="V67" s="23"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="V68" s="23"/>
+    </row>
+    <row r="69" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B70" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="V70" s="23"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="V71" s="23"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="V72" s="23"/>
+    </row>
+    <row r="73" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="V74" s="23"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="V75" s="23"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B76" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23"/>
+      <c r="V76" s="23"/>
+    </row>
+    <row r="77" spans="2:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B78" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="23"/>
+      <c r="V78" s="23"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B79" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="23"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="23"/>
+      <c r="V79" s="23"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="V80" s="23"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B82" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="V82" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:V4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131787A7-8DCF-4D48-B684-73C5C8BB6996}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BF82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="I59" sqref="I59:L59"/>
+      <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="1.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="53" width="7.28515625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="1.5703125" style="2" customWidth="1"/>
+    <col min="55" max="55" width="9.42578125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="1.28515625" style="2" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="143">
+        <v>46024</v>
+      </c>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="145"/>
+    </row>
+    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:58" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="146" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
+    </row>
+    <row r="5" spans="1:58" s="3" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="150"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="158"/>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+    </row>
+    <row r="6" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="30"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+    </row>
+    <row r="7" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="30"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="104">
+        <v>92</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96">
+        <f>C8-G8</f>
+        <v>92</v>
+      </c>
+      <c r="J8" s="107">
+        <f>D8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="96">
+        <f>L8+N8+P8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="95">
+        <f>M8+O8+Q8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="44"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="30"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+    </row>
+    <row r="9" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" ref="A9:A51" si="0">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="108">
+        <v>152</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="126">
+        <f t="shared" ref="I9:J51" si="1">C9-G9</f>
+        <v>152</v>
+      </c>
+      <c r="J9" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="96">
+        <f t="shared" ref="R9:S51" si="2">L9+N9+P9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="64"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="66"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="44"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="30"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="104">
+        <v>23</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="106">
+        <v>1</v>
+      </c>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J11" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="44"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="104">
+        <v>34</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J12" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="44"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="30"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+    </row>
+    <row r="13" spans="1:58" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="108">
+        <v>4087</v>
+      </c>
+      <c r="D13" s="109">
+        <v>15</v>
+      </c>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111">
+        <v>4</v>
+      </c>
+      <c r="H13" s="112">
+        <v>18</v>
+      </c>
+      <c r="I13" s="129">
+        <f>C13-G13</f>
+        <v>4083</v>
+      </c>
+      <c r="J13" s="128">
+        <f>D13-H13</f>
+        <v>-3</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="68"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="104">
+        <v>5</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="130">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="44"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="30"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="104">
+        <v>1</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="104">
+        <v>1</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="44"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="30"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="44"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="104">
+        <v>6</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="44"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="30"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+    </row>
+    <row r="19" spans="1:58" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="44"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="44"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="30"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="104">
+        <v>4</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="44"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="30"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="104">
+        <v>7</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J21" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="44"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="30"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="104">
+        <v>6</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="44"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="30"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="104">
+        <v>4</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="45"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+    </row>
+    <row r="24" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="104">
+        <v>55</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J24" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="45"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="104">
+        <v>8</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J25" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="44"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="30"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="104">
+        <v>88</v>
+      </c>
+      <c r="D26" s="105">
+        <v>23</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J26" s="107">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="44"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="BC26" s="14" t="e">
+        <f>#REF!-BC25</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="104">
+        <v>22</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J27" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="45"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+    </row>
+    <row r="28" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="104">
+        <v>126</v>
+      </c>
+      <c r="D28" s="105"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="106">
+        <v>6</v>
+      </c>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J28" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="45"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="104">
+        <v>10</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="44"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="30"/>
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="104">
+        <v>106</v>
+      </c>
+      <c r="D30" s="105"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="J30" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="44"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="30"/>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="44"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="30"/>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="44"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="30"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="104">
+        <v>5</v>
+      </c>
+      <c r="D33" s="105"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J33" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="44"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="30"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="104">
+        <v>223</v>
+      </c>
+      <c r="D34" s="105">
+        <v>23</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="J34" s="107">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="44"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="30"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="44"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="30"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="104">
+        <v>1</v>
+      </c>
+      <c r="D36" s="105"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="44"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="30"/>
+    </row>
+    <row r="37" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="108">
+        <v>7356</v>
+      </c>
+      <c r="D37" s="109">
+        <v>2</v>
+      </c>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="111">
+        <v>75</v>
+      </c>
+      <c r="H37" s="112"/>
+      <c r="I37" s="126">
+        <f t="shared" si="1"/>
+        <v>7281</v>
+      </c>
+      <c r="J37" s="133">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K37" s="64"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="64"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="66"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="104">
+        <v>36</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="130">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="J38" s="131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="44"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="30"/>
+    </row>
+    <row r="39" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>34</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="108">
+        <v>1164</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="126">
+        <f t="shared" si="1"/>
+        <v>1164</v>
+      </c>
+      <c r="J39" s="133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="64"/>
+      <c r="L39" s="97"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="97"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="64"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="66"/>
+    </row>
+    <row r="40" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="113">
+        <v>2360</v>
+      </c>
+      <c r="D40" s="114"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="115">
+        <v>12</v>
+      </c>
+      <c r="H40" s="116"/>
+      <c r="I40" s="115">
+        <f t="shared" si="1"/>
+        <v>2348</v>
+      </c>
+      <c r="J40" s="134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="69"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="69"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="63"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="44"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="44"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="30"/>
+    </row>
+    <row r="42" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="108">
+        <v>39067</v>
+      </c>
+      <c r="D42" s="109">
+        <v>1</v>
+      </c>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="111">
+        <v>480</v>
+      </c>
+      <c r="H42" s="112"/>
+      <c r="I42" s="135">
+        <f>C42-G42+E42</f>
+        <v>38587</v>
+      </c>
+      <c r="J42" s="136">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="98"/>
+      <c r="R42" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="64"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="66"/>
+      <c r="X42" s="50"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="44"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="44"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="30"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="44"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="30"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="104">
+        <v>3</v>
+      </c>
+      <c r="D45" s="105"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J45" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="44"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="30"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="104">
+        <v>2423</v>
+      </c>
+      <c r="D46" s="105">
+        <v>3</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96">
+        <f t="shared" si="1"/>
+        <v>2423</v>
+      </c>
+      <c r="J46" s="107">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="44"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="30"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="44"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="44"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="30"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="104">
+        <v>1</v>
+      </c>
+      <c r="D48" s="105"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="44"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="44"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="30"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="44"/>
+      <c r="L49" s="94"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="44"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="30"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="104">
+        <v>42</v>
+      </c>
+      <c r="D50" s="105"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="106">
+        <v>8</v>
+      </c>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J50" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="94"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="44"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="30"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="44"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="30"/>
+    </row>
+    <row r="52" spans="1:22" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="46">
+        <f>SUM(C8:C51)</f>
+        <v>57518</v>
+      </c>
+      <c r="D52" s="74">
+        <f>SUM(D8:D51)</f>
+        <v>67</v>
+      </c>
+      <c r="E52" s="47">
+        <f>SUM(E8:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="31">
+        <f>SUM(G8:G51)</f>
+        <v>586</v>
+      </c>
+      <c r="H52" s="76">
+        <f>SUM(H8:H51)</f>
+        <v>18</v>
+      </c>
+      <c r="I52" s="76">
+        <f>SUM(I8:I51)-2</f>
+        <v>56930</v>
+      </c>
+      <c r="J52" s="48">
+        <f>SUM(J8:J51)+48</f>
+        <v>97</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="101">
+        <f t="shared" ref="L52:S52" si="3">SUM(L8:L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="49"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="48"/>
+    </row>
+    <row r="53" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="33"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="35"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G55" s="139"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" s="36"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G56" s="140"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="41"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G57" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57" s="80"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="39"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="41"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G58" s="141"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="142"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L59" s="42"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:22" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="124"/>
+      <c r="E61" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="86"/>
+      <c r="N61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V61" s="123" t="s">
         <v>56</v>
       </c>
     </row>

--- a/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
+++ b/GBDS JANUARY FILES 2026/DSSR GBDS MONTH OF JANUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS JANUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6FCFEF-B87D-473B-B267-F070DFAB8F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102682F-5B8A-45B8-BB5E-6A754814B6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="20" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'01,08'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'01,09'!$A$1:$W$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'01,09 (2)'!$A$1:$W$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$P$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SAMPLE!$A$1:$Q$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1689,13 +1689,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2020,7 +2020,7 @@
   </sheetPr>
   <dimension ref="A1:AY82"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
@@ -3977,7 +3977,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3989,7 +3989,7 @@
   <dimension ref="A1:BF82"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
@@ -4075,7 +4075,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="158" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -4085,13 +4085,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -4112,7 +4112,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -4120,9 +4120,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="158"/>
+      <c r="H5" s="157"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -7177,6 +7177,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -7184,11 +7189,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:V4"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7290,7 +7290,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="158" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -7300,13 +7300,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -7327,7 +7327,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -7335,9 +7335,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="158"/>
+      <c r="H5" s="157"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="158" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -10497,13 +10497,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -10524,7 +10524,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -10532,9 +10532,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="158"/>
+      <c r="H5" s="157"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
@@ -13586,8 +13586,8 @@
   </sheetPr>
   <dimension ref="A1:BF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="I59" sqref="I59:L59"/>
       <selection pane="topRight" activeCell="I59" sqref="I59:L59"/>
       <selection pane="bottomLeft" activeCell="I59" sqref="I59:L59"/>
@@ -13673,7 +13673,7 @@
       <c r="C4" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="158" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="147" t="s">
@@ -13683,13 +13683,13 @@
       <c r="G4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="157" t="s">
+      <c r="H4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157" t="s">
+      <c r="J4" s="156" t="s">
         <v>75</v>
       </c>
       <c r="L4" s="153" t="s">
@@ -13710,7 +13710,7 @@
       <c r="A5" s="53"/>
       <c r="B5" s="137"/>
       <c r="C5" s="146"/>
-      <c r="D5" s="156"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="52" t="s">
         <v>8</v>
       </c>
@@ -13718,9 +13718,9 @@
         <v>9</v>
       </c>
       <c r="G5" s="150"/>
-      <c r="H5" s="158"/>
+      <c r="H5" s="157"/>
       <c r="I5" s="152"/>
-      <c r="J5" s="158"/>
+      <c r="J5" s="157"/>
       <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
